--- a/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE3C725-E780-4809-BE3F-A034C6B07B78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EE5A76-EDD9-4EB3-BF62-0266815CD4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1740,6 +1740,21 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2168,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4859,14 +4874,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>576</v>
+      </c>
+      <c r="H11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>577</v>
+      </c>
+      <c r="D16" t="s">
+        <v>577</v>
+      </c>
+      <c r="E16" t="s">
+        <v>577</v>
+      </c>
+      <c r="F16" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>